--- a/Mifos Automation Excels/Client/4083-CREATEACTIVECLIENT-UPLOADCLIENT-Duplicate-IDENTITY-DOCUMENT.xlsx
+++ b/Mifos Automation Excels/Client/4083-CREATEACTIVECLIENT-UPLOADCLIENT-Duplicate-IDENTITY-DOCUMENT.xlsx
@@ -69,9 +69,6 @@
     <t>Any Other Id Type</t>
   </si>
   <si>
-    <t>Active</t>
-  </si>
-  <si>
     <t>clickonsubmit</t>
   </si>
   <si>
@@ -94,6 +91,9 @@
   </si>
   <si>
     <t>Client `New Client 1` under Head Office office already has a Any Other Id Type with unique key 100.</t>
+  </si>
+  <si>
+    <t>ACTIVE</t>
   </si>
 </sst>
 </file>
@@ -492,15 +492,15 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -565,10 +565,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -582,7 +582,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -620,7 +620,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -641,7 +641,7 @@
     </row>
     <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>3</v>
@@ -649,10 +649,10 @@
     </row>
     <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
